--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -616,8 +616,8 @@
       <xdr:rowOff>7117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>444032</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1247596</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>94563</xdr:rowOff>
     </xdr:to>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +923,7 @@
     <col min="1" max="2" width="23.5546875" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="40.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="8040" tabRatio="561"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$31</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
   <si>
     <t xml:space="preserve">Economic Policy Uncertainty </t>
   </si>
@@ -50,12 +53,6 @@
     <t>Producer Price Index (PPI)</t>
   </si>
   <si>
-    <t>TRADE EXPORT CAPACITY</t>
-  </si>
-  <si>
-    <t>TRADE IMPORT CAPACITY</t>
-  </si>
-  <si>
     <t>POLITIC ENVIRONMENT</t>
   </si>
   <si>
@@ -86,25 +83,13 @@
     <t>Exchange Rates</t>
   </si>
   <si>
-    <t>CHINA Exports</t>
-  </si>
-  <si>
-    <t>UK Imports</t>
-  </si>
-  <si>
     <t>TITLE</t>
   </si>
   <si>
     <t>CHN_GBR_841840</t>
   </si>
   <si>
-    <t>CHINA Exports/UK Imports</t>
-  </si>
-  <si>
     <t>CHN/UK</t>
-  </si>
-  <si>
-    <t>DEPENDENT VARIABLE</t>
   </si>
   <si>
     <t>Y</t>
@@ -345,6 +330,129 @@
   </si>
   <si>
     <t>Turkiye Cin ve Ingiltere'nin aynı bazda oldugu bir PPI yok. Cin'nin tek oldugu bu PPI cesidi</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>CHINA Exports/UK Imports Value</t>
+  </si>
+  <si>
+    <t>CHINA Exports Value</t>
+  </si>
+  <si>
+    <t>UK Imports Value</t>
+  </si>
+  <si>
+    <t>CHN_GBR_841840_UV-1</t>
+  </si>
+  <si>
+    <t>USD/KG</t>
+  </si>
+  <si>
+    <t>CHINA Exports/UK Imports Unit Value</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840-1</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>World Trade Volume</t>
+  </si>
+  <si>
+    <t>Source Countries Exchange Rate</t>
+  </si>
+  <si>
+    <t>Target Countries Exchange Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Countries Economic Policy Uncertainty </t>
+  </si>
+  <si>
+    <t>Source Countries Business Confidence Indicator (BCI)</t>
+  </si>
+  <si>
+    <t>Source Countries Consumer Confidence Indicator  (CCI)</t>
+  </si>
+  <si>
+    <t>Source Countries Composite Leading Indicator (CLI)</t>
+  </si>
+  <si>
+    <t>Source Countries Gross Domestic Product (GDP)</t>
+  </si>
+  <si>
+    <t>Source Countries Producer Price Index (PPI)</t>
+  </si>
+  <si>
+    <t>Source Countries Consumer Price Index (CPI)</t>
+  </si>
+  <si>
+    <t>Source Countries Supply Capacity</t>
+  </si>
+  <si>
+    <t>Target Countries Demand Capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Countries Economic Policy Uncertainty </t>
+  </si>
+  <si>
+    <t>Target Countries Business Confidence Indicator (BCI)</t>
+  </si>
+  <si>
+    <t>Target Countries Consumer Confidence Indicator  (CCI)</t>
+  </si>
+  <si>
+    <t>Target Countries Composite Leading Indicator (CLI)</t>
+  </si>
+  <si>
+    <t>Target Countries Gross Domestic Product (GDP)</t>
+  </si>
+  <si>
+    <t>Target Countries Producer Price Index (PPI)</t>
+  </si>
+  <si>
+    <t>Target Countries Consumer Price Index (CPI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral Trade Flow Between Target (Importing) And Source(Exporting) Country Couple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Countries Export Volume to its top 5 market. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Bilateral Trade Flow Between Target (Importing) And Source(Exporting) Country Couple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous Bilateral Trade Flow's Unit Value Between Target (Importing) And Source(Exporting) Country Couple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Countries Import Volume from its top 5 exporters </t>
+  </si>
+  <si>
+    <t>Dependent Variable as Value</t>
+  </si>
+  <si>
+    <t>Previous Dependent Variable as Value</t>
+  </si>
+  <si>
+    <t>Previous Dependent Variable as Unit Value</t>
+  </si>
+  <si>
+    <t>Source Countries Export Volume to World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Countries Total Supply Capacity </t>
+  </si>
+  <si>
+    <t>SAMPLE DEFINITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Economic Policy Uncertainty </t>
   </si>
 </sst>
 </file>
@@ -534,16 +642,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>598127</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>199148</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>191848</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,16 +680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>35503</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>448441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>530803</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161571</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>521789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -612,14 +720,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>339436</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1247596</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>94563</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>721123</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>94562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -912,839 +1020,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="23.5546875" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="8" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="73.5546875" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="G18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="G29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="E31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="44" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="13"/>
-    </row>
-    <row r="42" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J31"/>
   <hyperlinks>
-    <hyperlink ref="J24" r:id="rId1"/>
+    <hyperlink ref="K26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -12,10 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="8040" tabRatio="561"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
+    <sheet name="Progress" sheetId="2" r:id="rId2"/>
+    <sheet name="Feature Selection" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Sources'!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feature Selection'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,8 +29,73 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Murat OZEMRE</author>
+  </authors>
+  <commentList>
+    <comment ref="I19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Murat OZEMRE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t xml:space="preserve">
+4 different features
+10/4 = 2.5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Murat OZEMRE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t xml:space="preserve">
+4 different features 6/4=1,5
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
   <si>
     <t xml:space="preserve">Economic Policy Uncertainty </t>
   </si>
@@ -453,13 +521,367 @@
   </si>
   <si>
     <t xml:space="preserve">World Economic Policy Uncertainty </t>
+  </si>
+  <si>
+    <t>EPU</t>
+  </si>
+  <si>
+    <t>CHINA - GBR</t>
+  </si>
+  <si>
+    <t>TURKEY - GBR</t>
+  </si>
+  <si>
+    <t>DATA OBTAINED</t>
+  </si>
+  <si>
+    <t>PREPARED FOR PREDICTION</t>
+  </si>
+  <si>
+    <t>RANDOM FOREST EXPERIMENTS</t>
+  </si>
+  <si>
+    <t>FEATURE SELECTION</t>
+  </si>
+  <si>
+    <t>NEURAL NETWORK EXPERIMENTS</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DONE  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not Included in Exp</t>
+    </r>
+  </si>
+  <si>
+    <t>YES
+Refreshed</t>
+  </si>
+  <si>
+    <t>COMPARISON AND RESULTS</t>
+  </si>
+  <si>
+    <t>Between 
+04-2006 :   
+03-2018</t>
+  </si>
+  <si>
+    <t>Between 
+07-2007 :   
+05-2017</t>
+  </si>
+  <si>
+    <t>HS4 Level 
+8418 Data</t>
+  </si>
+  <si>
+    <t>HS6 Level
+Between 
+04-2006 :   
+06-2018</t>
+  </si>
+  <si>
+    <t>CONTINUE
+Without Feature Selection</t>
+  </si>
+  <si>
+    <t>TUR_GBR 841810-3</t>
+  </si>
+  <si>
+    <t>TUR_GBR 841840-3</t>
+  </si>
+  <si>
+    <t>TUR_GBR 841850-3</t>
+  </si>
+  <si>
+    <t>CHN_GBR 841850-3</t>
+  </si>
+  <si>
+    <t>CHN_GBR 841840-3</t>
+  </si>
+  <si>
+    <t>CHN_GBR 841810-3</t>
+  </si>
+  <si>
+    <t>TUR_FRA_841810-3 2 (0.233407) 0.265757</t>
+  </si>
+  <si>
+    <t>CCI_GBR-3 18 (0.288561) 0.154375</t>
+  </si>
+  <si>
+    <t>TUR_World_841850-3 1 (0.287811) 0.108488</t>
+  </si>
+  <si>
+    <t>CPI_GBR-3 22 (0.202689) 0.311232</t>
+  </si>
+  <si>
+    <t>CPI_CHN-3 21 (0.157382) 0.229142</t>
+  </si>
+  <si>
+    <t>CPI_CHN-3 21 (0.283368) 0.252121</t>
+  </si>
+  <si>
+    <t>CPI_GBR-3 22 (0.214953) 0.293523</t>
+  </si>
+  <si>
+    <t>TUR_FRA_841840-3 4 (0.070747) 0.102496</t>
+  </si>
+  <si>
+    <t>CCI_TUR-3 14 (0.134332) 0.099096</t>
+  </si>
+  <si>
+    <t>CPI_CHN-3 21 (0.102475) 0.190956</t>
+  </si>
+  <si>
+    <t>CPI_GBR-3 22 (0.156212) 0.218162</t>
+  </si>
+  <si>
+    <t>CPI_GBR-3 22 (0.096236) 0.183465</t>
+  </si>
+  <si>
+    <t>CPI_TUR-3 21 (0.080234) 0.173342</t>
+  </si>
+  <si>
+    <t>NLD_GBR_841840-3 8 (0.045122) 0.052916</t>
+  </si>
+  <si>
+    <t>TUR_IRQ_841850-3 3 (0.042738) 0.079713</t>
+  </si>
+  <si>
+    <t>CHN_USA_841850-3 2 (0.204007) 0.279414</t>
+  </si>
+  <si>
+    <t>World-3 25 (0.011501) 0.019383</t>
+  </si>
+  <si>
+    <t>CHN_World_841810-3 1 (0.136351) 0.202883</t>
+  </si>
+  <si>
+    <t>TUR_World_841810-3 1 (0.078142) 0.199286</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840_UV-3 10 (0.034323) 0.039520</t>
+  </si>
+  <si>
+    <t>BCI_GBR-3 17 (0.017472) 0.038465</t>
+  </si>
+  <si>
+    <t>World-3 25 (0.199451) 0.301612</t>
+  </si>
+  <si>
+    <t>CHN_World_841840-3 1 (0.075172) 0.112098</t>
+  </si>
+  <si>
+    <t>CLI_GBR-3 19 (0.029686) 0.037323</t>
+  </si>
+  <si>
+    <t>TUR_ITA_841810-3 4 (0.131909) 0.254077</t>
+  </si>
+  <si>
+    <t>GDP_GBR-3 20 (0.025135) 0.067267</t>
+  </si>
+  <si>
+    <t>CLI_TUR-3 15 (0.016956) 0.047861</t>
+  </si>
+  <si>
+    <t>CHN_GBR_841850-3 0 (0.013306) 0.019750</t>
+  </si>
+  <si>
+    <t>CLI_CHN-3 15 (0.064034) 0.078692</t>
+  </si>
+  <si>
+    <t>World-3 25 (0.057832) 0.165453</t>
+  </si>
+  <si>
+    <t>CCI_TUR-3 14 (0.047620) 0.052744</t>
+  </si>
+  <si>
+    <t>CHN_GBR_841840-3 6 (0.028115) 0.033781</t>
+  </si>
+  <si>
+    <t>GDP_TUR-3 16 (0.112358) 0.050684</t>
+  </si>
+  <si>
+    <t>CHN_World_841850-3 1 (0.012776) 0.017185</t>
+  </si>
+  <si>
+    <t>CHN_DEU_841840-3 5 (0.053289) 0.057536</t>
+  </si>
+  <si>
+    <t>BCI_GBR-3 17 (0.030252) 0.049980</t>
+  </si>
+  <si>
+    <t>World-3 25 (0.028229) 0.048967</t>
+  </si>
+  <si>
+    <t>CCI_TUR-3 14 (0.048764) 0.056886</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841850_UV-3 10 (0.052084) 0.069456</t>
+  </si>
+  <si>
+    <t>CLI_CHN-3 15 (0.031690) 0.049575</t>
+  </si>
+  <si>
+    <t>CHN_USA_841840-3 2 (0.021507) 0.042491</t>
+  </si>
+  <si>
+    <t>CLI_CHN-3 15 (0.029780) 0.028718</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841810-3 0 (0.010756) 0.014685</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840-3 0 (0.020414) 0.021477</t>
+  </si>
+  <si>
+    <t>CHZ_GBR_841850-3 8 (0.027961) 0.030322</t>
+  </si>
+  <si>
+    <t>CLI_GBR-3 19 (0.022375) 0.026299</t>
+  </si>
+  <si>
+    <t>BCI_GBR-3 17 (0.016328) 0.018229</t>
+  </si>
+  <si>
+    <t>CHN_USA_841810-3 2 (0.036964) 0.049322</t>
+  </si>
+  <si>
+    <t>TUR_DEU_841810-3 5 (0.009718) 0.012673</t>
+  </si>
+  <si>
+    <t>GDP_TUR-3 16 (0.026998) 0.033414</t>
+  </si>
+  <si>
+    <t>TUR_DEU_841850-3 2 (0.024592) 0.022742</t>
+  </si>
+  <si>
+    <t>CCI_GBR-3 18 (0.019605) 0.026377</t>
+  </si>
+  <si>
+    <t>DEU_GBR_841840-3 7 (0.035035) 0.047130</t>
+  </si>
+  <si>
+    <t>ITA_GBR_841810-3 9 (0.050929) 0.054566</t>
+  </si>
+  <si>
+    <t>TRY-3 23 (0.004602) 0.005533</t>
+  </si>
+  <si>
+    <t>DEU_GBR_841840-3 7 (0.017935) 0.022678</t>
+  </si>
+  <si>
+    <t>CLI_GBR-3 19 (0.011950) 0.014914</t>
+  </si>
+  <si>
+    <t>AUT_GBR_841850-3 7 (0.005490) 0.005799</t>
+  </si>
+  <si>
+    <t>BCI_CHN-3 13 (0.014225) 0.018904</t>
+  </si>
+  <si>
+    <t>BCI_CHN-3 13 (0.026531) 0.026531</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Decription</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>BCI</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>SUPPLY CAPACITY</t>
+  </si>
+  <si>
+    <t>SUPPLY CAPACITY ALL</t>
+  </si>
+  <si>
+    <t>DEMAND CAPACITY</t>
+  </si>
+  <si>
+    <t>WORLD TRADE</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>DEPENDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV </t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>According only Category</t>
+  </si>
+  <si>
+    <t>According Category and Dimension how many times</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,8 +908,31 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +987,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -586,12 +1043,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -620,6 +1286,103 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -724,8 +1487,8 @@
       <xdr:rowOff>7117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>721123</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326268</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>94562</xdr:rowOff>
     </xdr:to>
@@ -1022,17 +1785,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="73.5546875" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" customWidth="1"/>
   </cols>
@@ -1419,7 +2183,9 @@
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +2210,9 @@
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +2237,9 @@
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2026,4 +2796,1959 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16"/>
+      <c r="C3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23">
+        <v>841810</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>841840</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25">
+        <v>841850</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23">
+        <v>841810</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24">
+        <v>841840</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="25">
+        <v>841850</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="53.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2">
+        <v>841810</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>841810</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4">
+        <v>841840</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5">
+        <v>841840</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6">
+        <v>841850</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7">
+        <v>841850</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8">
+        <v>841810</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>841810</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10">
+        <v>841840</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11">
+        <v>841840</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <v>841850</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13">
+        <v>841850</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14">
+        <v>841810</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15">
+        <v>841810</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16">
+        <v>841840</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17">
+        <v>841840</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>240</v>
+      </c>
+      <c r="I17" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18">
+        <v>841850</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19">
+        <v>841850</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" t="s">
+        <v>242</v>
+      </c>
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20">
+        <v>841810</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21">
+        <v>841810</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22">
+        <v>841840</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23">
+        <v>841840</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24">
+        <v>841850</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25">
+        <v>841850</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26">
+        <v>841810</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27">
+        <v>841810</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28">
+        <v>841840</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29">
+        <v>841840</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30">
+        <v>841850</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31">
+        <v>841850</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32">
+        <v>841810</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33">
+        <v>841810</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34">
+        <v>841840</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="H34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35">
+        <v>841840</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" t="s">
+        <v>244</v>
+      </c>
+      <c r="I35" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36">
+        <v>841850</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37">
+        <v>841850</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38">
+        <v>841810</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39">
+        <v>841810</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40">
+        <v>841840</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41">
+        <v>841840</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42">
+        <v>841850</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43">
+        <v>841850</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44">
+        <v>841810</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45">
+        <v>841810</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46">
+        <v>841840</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" t="s">
+        <v>243</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47">
+        <v>841840</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48">
+        <v>841850</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49">
+        <v>841850</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50">
+        <v>841810</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51">
+        <v>841810</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+      <c r="H51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52">
+        <v>841840</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53">
+        <v>841840</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54">
+        <v>841850</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55">
+        <v>841850</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56">
+        <v>841810</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>226</v>
+      </c>
+      <c r="F56" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>249</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57">
+        <v>841810</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58">
+        <v>841840</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>242</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59">
+        <v>841840</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60">
+        <v>841850</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" t="s">
+        <v>233</v>
+      </c>
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61">
+        <v>841850</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" t="s">
+        <v>239</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1">
+    <sortState ref="A2:I61">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="8040" tabRatio="561"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="8040" tabRatio="412"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Feature Selection" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Sources'!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Sources'!$A$1:$K$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feature Selection'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,7 +35,34 @@
     <author>Murat OZEMRE</author>
   </authors>
   <commentList>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Murat OZEMRE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t xml:space="preserve">
+4 different features 6/4=1,5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,39 +90,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="162"/>
-          </rPr>
-          <t>Murat OZEMRE:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="162"/>
-          </rPr>
-          <t xml:space="preserve">
-4 different features 6/4=1,5
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="222">
   <si>
     <t xml:space="preserve">Economic Policy Uncertainty </t>
   </si>
@@ -163,97 +163,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>X0</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>X23</t>
-  </si>
-  <si>
-    <t>X24</t>
-  </si>
-  <si>
-    <t>X25</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
     <t>i-1</t>
   </si>
   <si>
-    <t>X26</t>
-  </si>
-  <si>
     <t>MONTH</t>
-  </si>
-  <si>
-    <t>VARIABLE</t>
   </si>
   <si>
     <t>CHN_World_841840-1</t>
@@ -422,12 +338,6 @@
   </si>
   <si>
     <t>TUR_GBR_841840-1</t>
-  </si>
-  <si>
-    <t>X27</t>
-  </si>
-  <si>
-    <t>X28</t>
   </si>
   <si>
     <t>World Trade Volume</t>
@@ -576,10 +486,6 @@
     </r>
   </si>
   <si>
-    <t>YES
-Refreshed</t>
-  </si>
-  <si>
     <t>COMPARISON AND RESULTS</t>
   </si>
   <si>
@@ -603,10 +509,6 @@
 06-2018</t>
   </si>
   <si>
-    <t>CONTINUE
-Without Feature Selection</t>
-  </si>
-  <si>
     <t>TUR_GBR 841810-3</t>
   </si>
   <si>
@@ -875,6 +777,16 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>YES
+Updated</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>VARIABLE FOR CHINA</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1289,100 +1201,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1405,16 +1354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>598127</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>199148</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4812</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1443,16 +1392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>35503</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>448441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>530803</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>521789</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>869726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1487,8 +1436,8 @@
       <xdr:rowOff>7117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>326268</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3379272</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>94562</xdr:rowOff>
     </xdr:to>
@@ -1783,33 +1732,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="90" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="73.5546875" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="59.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="73.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>84</v>
+      <c r="B1" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
@@ -1818,373 +1768,420 @@
         <v>16</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>58</v>
+      <c r="J2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="54">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="53">
+        <v>4</v>
+      </c>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="53">
+        <v>5</v>
+      </c>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7</v>
+      </c>
+      <c r="J10" s="55">
+        <v>6</v>
+      </c>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
+      <c r="J11" s="55">
+        <v>7</v>
+      </c>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="55">
+        <v>8</v>
+      </c>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="55">
+        <v>9</v>
+      </c>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
@@ -2193,25 +2190,28 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4">
+        <v>11</v>
+      </c>
+      <c r="J14" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>0</v>
@@ -2220,25 +2220,28 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12</v>
+      </c>
+      <c r="J15" s="56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>0</v>
@@ -2247,60 +2250,66 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="I16" s="4">
+        <v>13</v>
+      </c>
+      <c r="J16" s="56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4">
+        <v>14</v>
+      </c>
+      <c r="J17" s="57">
+        <v>13</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
@@ -2309,68 +2318,74 @@
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="I18" s="4">
+        <v>15</v>
+      </c>
+      <c r="J18" s="58">
+        <v>14</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4">
+        <v>16</v>
+      </c>
+      <c r="J19" s="57">
+        <v>17</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
@@ -2379,33 +2394,36 @@
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4">
+        <v>17</v>
+      </c>
+      <c r="J20" s="58">
+        <v>18</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>3</v>
@@ -2414,33 +2432,36 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4">
+        <v>18</v>
+      </c>
+      <c r="J21" s="59">
+        <v>15</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>3</v>
@@ -2449,33 +2470,36 @@
         <v>13</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I22" s="4">
+        <v>19</v>
+      </c>
+      <c r="J22" s="59">
+        <v>19</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
@@ -2484,33 +2508,36 @@
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I23" s="4">
+        <v>20</v>
+      </c>
+      <c r="J23" s="59">
+        <v>16</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
@@ -2519,33 +2546,36 @@
         <v>13</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I24" s="4">
+        <v>21</v>
+      </c>
+      <c r="J24" s="59">
+        <v>20</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
@@ -2554,30 +2584,33 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4">
+        <v>22</v>
+      </c>
+      <c r="J25" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>81</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
@@ -2586,31 +2619,34 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I26" s="4">
+        <v>23</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>1</v>
@@ -2619,33 +2655,36 @@
         <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I27" s="4">
+        <v>24</v>
+      </c>
+      <c r="J27" s="59">
+        <v>21</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>1</v>
@@ -2654,100 +2693,109 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="4">
+        <v>25</v>
+      </c>
+      <c r="J28" s="59">
+        <v>22</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>81</v>
+      <c r="B29" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="4">
+        <v>26</v>
+      </c>
+      <c r="J29" s="60">
+        <v>23</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>81</v>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I30" s="4">
+        <v>27</v>
+      </c>
+      <c r="J30" s="60">
+        <v>24</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
@@ -2757,40 +2805,43 @@
         <v>14</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="I31" s="4">
+        <v>28</v>
+      </c>
+      <c r="J31" s="61">
+        <v>25</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C36" s="13"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="44" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C44" s="13"/>
       <c r="E44" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J31"/>
+  <autoFilter ref="A1:K31"/>
   <hyperlinks>
-    <hyperlink ref="K26" r:id="rId1"/>
+    <hyperlink ref="L26" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2802,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2820,397 +2871,397 @@
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="20"/>
+      <c r="C2" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="50"/>
+      <c r="M2" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
-      <c r="C3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>143</v>
+      <c r="C3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23">
+      <c r="B4" s="19">
         <v>841810</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>150</v>
+      <c r="C4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>841840</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>150</v>
+      <c r="C5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25">
+      <c r="B6" s="21">
         <v>841850</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>150</v>
+      <c r="C6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C8" s="13" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="20"/>
+      <c r="C11" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>
-      <c r="C12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>143</v>
+      <c r="C12" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="19">
         <v>841810</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="N13" s="45" t="s">
-        <v>160</v>
+      <c r="C13" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>841840</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>160</v>
+      <c r="C14" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="46.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25">
+      <c r="B15" s="21">
         <v>841850</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="N15" s="47" t="s">
-        <v>160</v>
+      <c r="C15" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +3289,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3254,31 +3305,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="H1" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3286,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>841810</v>
@@ -3295,59 +3346,68 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>841810</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
+        <v>211</v>
+      </c>
+      <c r="I3" s="44">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C4">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>206</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>243</v>
+        <v>210</v>
+      </c>
+      <c r="I4" s="44">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3355,22 +3415,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C5">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3378,45 +3438,45 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>841810</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>164</v>
       </c>
-      <c r="C6">
-        <v>841850</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>170</v>
-      </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C7">
-        <v>841850</v>
+        <v>841810</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -3424,48 +3484,51 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C8">
         <v>841810</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>201</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I8" s="48">
+        <v>210</v>
+      </c>
+      <c r="I8" s="44">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>841810</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3473,68 +3536,68 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C10">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="C11">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="H11" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C12">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3542,51 +3605,51 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C13">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I13" s="48">
-        <v>4</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C14">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>208</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
+        <v>208</v>
+      </c>
+      <c r="I14" s="44">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3594,51 +3657,45 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C15">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="H15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I15" s="48">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>841840</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3646,28 +3703,22 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>841840</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" s="48">
-        <v>4</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -3675,48 +3726,48 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C18">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="H18" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C19">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>181</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="I19">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -3724,45 +3775,51 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C20">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C21">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" t="s">
-        <v>238</v>
-      </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>210</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -3770,74 +3827,74 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C22">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C23">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" s="44">
         <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>242</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C24">
         <v>841850</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="H24" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -3845,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C25">
         <v>841850</v>
@@ -3854,36 +3911,36 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="H25" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C26">
-        <v>841810</v>
+        <v>841850</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -3891,22 +3948,22 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C27">
-        <v>841810</v>
+        <v>841850</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -3914,71 +3971,71 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C28">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C29">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
-        <v>243</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>841850</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>211</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -3986,177 +4043,180 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>841850</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>207</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>211</v>
+      </c>
+      <c r="I31">
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>841810</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C33">
         <v>841810</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C34">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C35">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
-      </c>
-      <c r="I35" s="48">
-        <v>4</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C36">
-        <v>841850</v>
+        <v>841810</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C37">
-        <v>841850</v>
+        <v>841810</v>
       </c>
       <c r="D37">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>203</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
+        <v>210</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C38">
         <v>841810</v>
@@ -4165,560 +4225,554 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
       <c r="H38" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="48">
-        <v>4</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C39">
         <v>841810</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C40">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C41">
-        <v>841840</v>
+        <v>841810</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
+        <v>204</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>242</v>
+        <v>210</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C42">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C43">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
         <v>205</v>
       </c>
-      <c r="F43" t="s">
-        <v>245</v>
-      </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C44">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C45">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>213</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>210</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C46">
         <v>841840</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>841840</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>244</v>
+        <v>212</v>
+      </c>
+      <c r="I47" s="44">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C48">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C49">
-        <v>841850</v>
+        <v>841840</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C50">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>209</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>243</v>
+        <v>210</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C51">
-        <v>841810</v>
+        <v>841840</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="H51" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C52">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C53">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G53">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
-      </c>
-      <c r="I53">
-        <v>2</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C54">
         <v>841850</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="H54" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C55">
         <v>841850</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="H55" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C56">
-        <v>841810</v>
+        <v>841850</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="H56" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C57">
-        <v>841810</v>
+        <v>841850</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="C58">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
-      </c>
-      <c r="G58">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="H58" t="s">
-        <v>242</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C59">
-        <v>841840</v>
+        <v>841850</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="H59" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>841850</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C61">
         <v>841850</v>
@@ -4727,25 +4781,22 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
-      </c>
-      <c r="G61">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="H61" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="I61">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">
     <sortState ref="A2:I61">
-      <sortCondition ref="D1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -1293,6 +1293,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1304,33 +1331,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1814,7 +1814,7 @@
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="50" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="48"/>
@@ -1847,7 +1847,7 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="50">
         <v>0</v>
       </c>
       <c r="K3" s="48"/>
@@ -1878,7 +1878,7 @@
       <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="50" t="s">
         <v>220</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="49">
         <v>1</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="49">
         <v>2</v>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       <c r="I7" s="4">
         <v>4</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="49">
         <v>3</v>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="49">
         <v>4</v>
       </c>
       <c r="K8" s="48"/>
@@ -2039,7 +2039,7 @@
       <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="49">
         <v>5</v>
       </c>
       <c r="K9" s="48"/>
@@ -2072,7 +2072,7 @@
       <c r="I10" s="4">
         <v>7</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="51">
         <v>6</v>
       </c>
       <c r="K10" s="48"/>
@@ -2105,7 +2105,7 @@
       <c r="I11" s="4">
         <v>8</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="51">
         <v>7</v>
       </c>
       <c r="K11" s="48"/>
@@ -2138,7 +2138,7 @@
       <c r="I12" s="4">
         <v>9</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="51">
         <v>8</v>
       </c>
       <c r="K12" s="48"/>
@@ -2171,7 +2171,7 @@
       <c r="I13" s="4">
         <v>10</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="51">
         <v>9</v>
       </c>
       <c r="K13" s="48"/>
@@ -2202,7 +2202,7 @@
       <c r="I14" s="4">
         <v>11</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="52">
         <v>10</v>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       <c r="I15" s="4">
         <v>12</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="52">
         <v>11</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       <c r="I16" s="4">
         <v>13</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="52">
         <v>12</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       <c r="I17" s="4">
         <v>14</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="53">
         <v>13</v>
       </c>
       <c r="K17" s="12" t="s">
@@ -2332,7 +2332,7 @@
       <c r="I18" s="4">
         <v>15</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="54">
         <v>14</v>
       </c>
       <c r="K18" s="12" t="s">
@@ -2370,7 +2370,7 @@
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="57">
+      <c r="J19" s="53">
         <v>17</v>
       </c>
       <c r="K19" s="12" t="s">
@@ -2408,7 +2408,7 @@
       <c r="I20" s="4">
         <v>17</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="54">
         <v>18</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -2446,7 +2446,7 @@
       <c r="I21" s="4">
         <v>18</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="55">
         <v>15</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -2484,7 +2484,7 @@
       <c r="I22" s="4">
         <v>19</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="55">
         <v>19</v>
       </c>
       <c r="K22" s="12" t="s">
@@ -2522,7 +2522,7 @@
       <c r="I23" s="4">
         <v>20</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="55">
         <v>16</v>
       </c>
       <c r="K23" s="12" t="s">
@@ -2560,7 +2560,7 @@
       <c r="I24" s="4">
         <v>21</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="55">
         <v>20</v>
       </c>
       <c r="K24" s="12" t="s">
@@ -2598,7 +2598,7 @@
       <c r="I25" s="4">
         <v>22</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="55" t="s">
         <v>220</v>
       </c>
       <c r="K25" s="12" t="s">
@@ -2631,7 +2631,7 @@
       <c r="I26" s="4">
         <v>23</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="55" t="s">
         <v>220</v>
       </c>
       <c r="K26" s="12" t="s">
@@ -2669,7 +2669,7 @@
       <c r="I27" s="4">
         <v>24</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="55">
         <v>21</v>
       </c>
       <c r="K27" s="12" t="s">
@@ -2707,7 +2707,7 @@
       <c r="I28" s="4">
         <v>25</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="55">
         <v>22</v>
       </c>
       <c r="K28" s="12" t="s">
@@ -2745,7 +2745,7 @@
       <c r="I29" s="4">
         <v>26</v>
       </c>
-      <c r="J29" s="60">
+      <c r="J29" s="56">
         <v>23</v>
       </c>
       <c r="K29" s="12" t="s">
@@ -2783,7 +2783,7 @@
       <c r="I30" s="4">
         <v>27</v>
       </c>
-      <c r="J30" s="60">
+      <c r="J30" s="56">
         <v>24</v>
       </c>
       <c r="K30" s="12" t="s">
@@ -2817,7 +2817,7 @@
       <c r="I31" s="4">
         <v>28</v>
       </c>
-      <c r="J31" s="61">
+      <c r="J31" s="57">
         <v>25</v>
       </c>
       <c r="K31" s="12" t="s">
@@ -2831,7 +2831,7 @@
       <c r="C36" s="13"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="44" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>71</v>
       </c>
@@ -2871,30 +2871,30 @@
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16"/>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="49" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="50"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
@@ -3069,30 +3069,30 @@
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="59"/>
+      <c r="G11" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="49" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="49" t="s">
+      <c r="J11" s="59"/>
+      <c r="K11" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="49" t="s">
+      <c r="L11" s="59"/>
+      <c r="M11" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="50"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16"/>

--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="223">
   <si>
     <t xml:space="preserve">Economic Policy Uncertainty </t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>VARIABLE FOR CHINA</t>
+  </si>
+  <si>
+    <t>PPI Icin kullanılan tablo</t>
   </si>
 </sst>
 </file>
@@ -1466,6 +1469,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>283657</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>75352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2142067" y="12810067"/>
+          <a:ext cx="8276190" cy="6780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1732,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2837,6 +2878,11 @@
       </c>
       <c r="C44" s="13"/>
       <c r="E44" s="13"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K31"/>

--- a/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
+++ b/Data_Sources_and_Preparation/Explanation of Data and Sources.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Sources'!$A$1:$K$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feature Selection'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feature Selection'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
     <author>Murat OZEMRE</author>
   </authors>
   <commentList>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="0" shapeId="0">
+    <comment ref="J54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="278">
   <si>
     <t xml:space="preserve">Economic Policy Uncertainty </t>
   </si>
@@ -790,6 +790,171 @@
   </si>
   <si>
     <t>PPI Icin kullanılan tablo</t>
+  </si>
+  <si>
+    <t>JAN 2019</t>
+  </si>
+  <si>
+    <t>Not Exists</t>
+  </si>
+  <si>
+    <t>Not Exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES </t>
+  </si>
+  <si>
+    <t>1. DATA ACQUISITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. DATA PREPATION </t>
+  </si>
+  <si>
+    <t>4. FEATURE SELECTION</t>
+  </si>
+  <si>
+    <t>5. RANDOM FOREST EXPERIMENTS</t>
+  </si>
+  <si>
+    <t>6.NEURAL NETWORK EXPERIMENTS</t>
+  </si>
+  <si>
+    <t>7. COMPARISON AND RESULTS</t>
+  </si>
+  <si>
+    <t>8. IMPLEMENTATION FOR A COMPANY</t>
+  </si>
+  <si>
+    <t>3. PRELIMINARY ANALYSIS</t>
+  </si>
+  <si>
+    <t>YES - for 3 month horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES - for best month horizon </t>
+  </si>
+  <si>
+    <t>Not Yet</t>
+  </si>
+  <si>
+    <t>CPI_CHN-3</t>
+  </si>
+  <si>
+    <t>CPI_GBR-3</t>
+  </si>
+  <si>
+    <t>CHN_World_841810-3</t>
+  </si>
+  <si>
+    <t>CLI_GBR-3</t>
+  </si>
+  <si>
+    <t>World-3</t>
+  </si>
+  <si>
+    <t>BCI_GBR-3</t>
+  </si>
+  <si>
+    <t>CLI_CHN-3</t>
+  </si>
+  <si>
+    <t>CHN_USA_841810-3</t>
+  </si>
+  <si>
+    <t>ITA_GBR_841810-3</t>
+  </si>
+  <si>
+    <t>BCI_CHN-3</t>
+  </si>
+  <si>
+    <t>CHN_World_841840-3</t>
+  </si>
+  <si>
+    <t>CHN_DEU_841840-3</t>
+  </si>
+  <si>
+    <t>CHN_USA_841840-3</t>
+  </si>
+  <si>
+    <t>DEU_GBR_841840-3</t>
+  </si>
+  <si>
+    <t>CHN_USA_841850-3</t>
+  </si>
+  <si>
+    <t>CHN_GBR_841850-3</t>
+  </si>
+  <si>
+    <t>CHN_World_841850-3</t>
+  </si>
+  <si>
+    <t>CCI_GBR-3</t>
+  </si>
+  <si>
+    <t>AUT_GBR_841850-3</t>
+  </si>
+  <si>
+    <t>TUR_FRA_841810-3</t>
+  </si>
+  <si>
+    <t>CPI_TUR-3</t>
+  </si>
+  <si>
+    <t>TUR_World_841810-3</t>
+  </si>
+  <si>
+    <t>TUR_ITA_841810-3</t>
+  </si>
+  <si>
+    <t>CCI_TUR-3</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841810-3</t>
+  </si>
+  <si>
+    <t>TUR_DEU_841810-3</t>
+  </si>
+  <si>
+    <t>TRY-3</t>
+  </si>
+  <si>
+    <t>TUR_FRA_841840-3</t>
+  </si>
+  <si>
+    <t>NLD_GBR_841840-3</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840_UV-3</t>
+  </si>
+  <si>
+    <t>GDP_GBR-3</t>
+  </si>
+  <si>
+    <t>CHN_GBR_841840-3</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841840-3</t>
+  </si>
+  <si>
+    <t>GDP_TUR-3</t>
+  </si>
+  <si>
+    <t>TUR_World_841850-3</t>
+  </si>
+  <si>
+    <t>TUR_IRQ_841850-3</t>
+  </si>
+  <si>
+    <t>CLI_TUR-3</t>
+  </si>
+  <si>
+    <t>TUR_GBR_841850_UV-3</t>
+  </si>
+  <si>
+    <t>CHZ_GBR_841850-3</t>
+  </si>
+  <si>
+    <t>TUR_DEU_841850-3</t>
   </si>
 </sst>
 </file>
@@ -847,7 +1012,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,8 +1079,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1167,12 +1350,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1334,6 +1582,148 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1477,8 +1867,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>283657</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1087990</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>75352</xdr:rowOff>
     </xdr:to>
@@ -1776,7 +2166,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,9 +2176,9 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="59.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="73.5546875" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="73.5546875" customWidth="1"/>
+    <col min="8" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2897,21 +3287,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N17"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="12" width="16.44140625" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3112,6 +3502,11 @@
         <v>127</v>
       </c>
     </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="62" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:14" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="16"/>
@@ -3302,7 +3697,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C17" s="13" t="s">
         <v>125</v>
       </c>
@@ -3310,8 +3705,718 @@
         <v>128</v>
       </c>
     </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+      <c r="C23" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="94"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
+      <c r="C24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="102">
+        <v>841810</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="102">
+        <v>841840</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="102">
+        <v>841850</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="98"/>
+      <c r="H28" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="98"/>
+      <c r="J28" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="94"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="102">
+        <v>841810</v>
+      </c>
+      <c r="D30" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="102">
+        <v>841840</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="102">
+        <v>841850</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="I33" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="98"/>
+      <c r="K33" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="94"/>
+    </row>
+    <row r="34" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="I34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="H35" s="102">
+        <v>841810</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="H36" s="102">
+        <v>841840</v>
+      </c>
+      <c r="I36" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="S36" s="58"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="59"/>
+    </row>
+    <row r="37" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="H37" s="102">
+        <v>841850</v>
+      </c>
+      <c r="I37" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="S37" s="27"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="28"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="41"/>
+    </row>
+    <row r="39" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="42"/>
+    </row>
+    <row r="40" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16"/>
+      <c r="C40" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="94"/>
+    </row>
+    <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="16"/>
+      <c r="C41" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="102">
+        <v>841810</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="102">
+        <v>841840</v>
+      </c>
+      <c r="C43" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="102">
+        <v>841850</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="96"/>
+      <c r="F45" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" s="98"/>
+      <c r="H45" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" s="98"/>
+      <c r="J45" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="K45" s="94"/>
+    </row>
+    <row r="46" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="102">
+        <v>841810</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="I47" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="J47" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="K47" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="102">
+        <v>841840</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="I48" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="J48" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="K48" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="102">
+        <v>841850</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="I49" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="K49" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="I50" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" s="98"/>
+      <c r="K50" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" s="94"/>
+    </row>
+    <row r="51" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="I51" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="H52" s="102">
+        <v>841810</v>
+      </c>
+      <c r="I52" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="K52" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="L52" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="107"/>
+      <c r="U52" s="107"/>
+      <c r="V52" s="107"/>
+      <c r="W52" s="107"/>
+    </row>
+    <row r="53" spans="3:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="H53" s="102">
+        <v>841840</v>
+      </c>
+      <c r="I53" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="K53" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="L53" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
+      <c r="V53" s="108"/>
+      <c r="W53" s="107"/>
+    </row>
+    <row r="54" spans="3:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="H54" s="102">
+        <v>841850</v>
+      </c>
+      <c r="I54" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="J54" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="K54" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q54" s="107"/>
+      <c r="R54" s="107"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="107"/>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="107"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="Q56" s="107"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="107"/>
+      <c r="T56" s="107"/>
+      <c r="U56" s="107"/>
+      <c r="V56" s="107"/>
+      <c r="W56" s="107"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="Q57" s="107"/>
+      <c r="R57" s="107"/>
+      <c r="S57" s="107"/>
+      <c r="T57" s="107"/>
+      <c r="U57" s="107"/>
+      <c r="V57" s="107"/>
+      <c r="W57" s="107"/>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
+      <c r="S58" s="107"/>
+      <c r="T58" s="107"/>
+      <c r="U58" s="107"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="Q59" s="107"/>
+      <c r="R59" s="107"/>
+      <c r="S59" s="107"/>
+      <c r="T59" s="107"/>
+      <c r="U59" s="107"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="32">
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="C11:D11"/>
@@ -3332,10 +4437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3343,13 +4448,14 @@
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="53.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="53.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>218</v>
       </c>
@@ -3366,19 +4472,22 @@
         <v>197</v>
       </c>
       <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3395,13 +4504,16 @@
         <v>140</v>
       </c>
       <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" t="s">
         <v>202</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3418,16 +4530,19 @@
         <v>146</v>
       </c>
       <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
         <v>202</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="44">
+      <c r="J3" s="44">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3444,19 +4559,22 @@
         <v>152</v>
       </c>
       <c r="F4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" t="s">
         <v>206</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="44">
+      <c r="J4" s="44">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3473,13 +4591,16 @@
         <v>158</v>
       </c>
       <c r="F5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" t="s">
         <v>201</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3496,13 +4617,16 @@
         <v>164</v>
       </c>
       <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="s">
         <v>208</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3519,13 +4643,16 @@
         <v>170</v>
       </c>
       <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
         <v>200</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3542,19 +4669,22 @@
         <v>176</v>
       </c>
       <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" t="s">
         <v>201</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="44">
+      <c r="J8" s="44">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3571,13 +4701,16 @@
         <v>182</v>
       </c>
       <c r="F9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" t="s">
         <v>205</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3594,13 +4727,16 @@
         <v>188</v>
       </c>
       <c r="F10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" t="s">
         <v>207</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3617,13 +4753,16 @@
         <v>194</v>
       </c>
       <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
         <v>200</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3640,13 +4779,16 @@
         <v>139</v>
       </c>
       <c r="F12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" t="s">
         <v>202</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3663,13 +4805,16 @@
         <v>145</v>
       </c>
       <c r="F13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" t="s">
         <v>202</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3686,19 +4831,22 @@
         <v>151</v>
       </c>
       <c r="F14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G14" t="s">
         <v>208</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="44">
+      <c r="J14" s="44">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3715,13 +4863,16 @@
         <v>157</v>
       </c>
       <c r="F15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
         <v>206</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3738,13 +4889,16 @@
         <v>163</v>
       </c>
       <c r="F16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" t="s">
         <v>201</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3761,13 +4915,16 @@
         <v>169</v>
       </c>
       <c r="F17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" t="s">
         <v>205</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3784,13 +4941,16 @@
         <v>175</v>
       </c>
       <c r="F18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" t="s">
         <v>205</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3807,16 +4967,19 @@
         <v>181</v>
       </c>
       <c r="F19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" t="s">
         <v>200</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>211</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3833,13 +4996,16 @@
         <v>187</v>
       </c>
       <c r="F20" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" t="s">
         <v>207</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3856,19 +5022,22 @@
         <v>193</v>
       </c>
       <c r="F21" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" t="s">
         <v>200</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>210</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3885,13 +5054,16 @@
         <v>138</v>
       </c>
       <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
         <v>202</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3908,19 +5080,22 @@
         <v>144</v>
       </c>
       <c r="F23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" t="s">
         <v>202</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>8</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="44">
+      <c r="J23" s="44">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3937,13 +5112,16 @@
         <v>150</v>
       </c>
       <c r="F24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" t="s">
         <v>205</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3960,13 +5138,16 @@
         <v>156</v>
       </c>
       <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
         <v>208</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3983,13 +5164,16 @@
         <v>162</v>
       </c>
       <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
         <v>205</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4006,13 +5190,16 @@
         <v>168</v>
       </c>
       <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
         <v>206</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4029,13 +5216,16 @@
         <v>174</v>
       </c>
       <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
         <v>201</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -4052,13 +5242,16 @@
         <v>180</v>
       </c>
       <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
         <v>201</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -4075,16 +5268,19 @@
         <v>186</v>
       </c>
       <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
         <v>203</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>211</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -4101,19 +5297,22 @@
         <v>192</v>
       </c>
       <c r="F31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" t="s">
         <v>207</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>211</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>217</v>
       </c>
@@ -4130,13 +5329,16 @@
         <v>135</v>
       </c>
       <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
         <v>205</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -4153,13 +5355,16 @@
         <v>141</v>
       </c>
       <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
         <v>202</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -4176,13 +5381,16 @@
         <v>147</v>
       </c>
       <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
         <v>202</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>217</v>
       </c>
@@ -4199,13 +5407,16 @@
         <v>153</v>
       </c>
       <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
         <v>206</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -4222,13 +5433,16 @@
         <v>159</v>
       </c>
       <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
         <v>205</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -4245,19 +5459,22 @@
         <v>165</v>
       </c>
       <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
         <v>203</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>210</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -4274,13 +5491,16 @@
         <v>171</v>
       </c>
       <c r="F38" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" t="s">
         <v>208</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>217</v>
       </c>
@@ -4297,13 +5517,16 @@
         <v>177</v>
       </c>
       <c r="F39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" t="s">
         <v>205</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>217</v>
       </c>
@@ -4320,13 +5543,16 @@
         <v>183</v>
       </c>
       <c r="F40" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" t="s">
         <v>205</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>217</v>
       </c>
@@ -4343,19 +5569,22 @@
         <v>189</v>
       </c>
       <c r="F41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>1</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>210</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -4372,13 +5601,16 @@
         <v>136</v>
       </c>
       <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" t="s">
         <v>203</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>217</v>
       </c>
@@ -4395,13 +5627,16 @@
         <v>142</v>
       </c>
       <c r="F43" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" t="s">
         <v>205</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -4418,13 +5653,16 @@
         <v>148</v>
       </c>
       <c r="F44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" t="s">
         <v>207</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -4441,19 +5679,22 @@
         <v>154</v>
       </c>
       <c r="F45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" t="s">
         <v>213</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>210</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>217</v>
       </c>
@@ -4470,16 +5711,19 @@
         <v>160</v>
       </c>
       <c r="F46" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" t="s">
         <v>209</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>211</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>217</v>
       </c>
@@ -4496,16 +5740,19 @@
         <v>166</v>
       </c>
       <c r="F47" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" t="s">
         <v>205</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>212</v>
       </c>
-      <c r="I47" s="44">
+      <c r="J47" s="44">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -4522,13 +5769,16 @@
         <v>172</v>
       </c>
       <c r="F48" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" t="s">
         <v>203</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>217</v>
       </c>
@@ -4545,13 +5795,16 @@
         <v>178</v>
       </c>
       <c r="F49" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" t="s">
         <v>205</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -4568,19 +5821,22 @@
         <v>184</v>
       </c>
       <c r="F50" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" t="s">
         <v>209</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>210</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -4597,13 +5853,16 @@
         <v>190</v>
       </c>
       <c r="F51" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" t="s">
         <v>207</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -4620,13 +5879,16 @@
         <v>137</v>
       </c>
       <c r="F52" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" t="s">
         <v>206</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -4643,13 +5905,16 @@
         <v>143</v>
       </c>
       <c r="F53" t="s">
+        <v>261</v>
+      </c>
+      <c r="G53" t="s">
         <v>203</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -4666,16 +5931,19 @@
         <v>149</v>
       </c>
       <c r="F54" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" t="s">
         <v>205</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>210</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -4692,13 +5960,16 @@
         <v>155</v>
       </c>
       <c r="F55" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" t="s">
         <v>200</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -4715,13 +5986,16 @@
         <v>161</v>
       </c>
       <c r="F56" t="s">
+        <v>274</v>
+      </c>
+      <c r="G56" t="s">
         <v>201</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -4738,13 +6012,16 @@
         <v>167</v>
       </c>
       <c r="F57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G57" t="s">
         <v>209</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4761,13 +6038,16 @@
         <v>173</v>
       </c>
       <c r="F58" t="s">
+        <v>275</v>
+      </c>
+      <c r="G58" t="s">
         <v>213</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -4784,13 +6064,16 @@
         <v>179</v>
       </c>
       <c r="F59" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" t="s">
         <v>207</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>217</v>
       </c>
@@ -4807,13 +6090,16 @@
         <v>185</v>
       </c>
       <c r="F60" t="s">
+        <v>277</v>
+      </c>
+      <c r="G60" t="s">
         <v>205</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>217</v>
       </c>
@@ -4830,18 +6116,21 @@
         <v>191</v>
       </c>
       <c r="F61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" t="s">
         <v>201</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>211</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1">
-    <sortState ref="A2:I61">
+  <autoFilter ref="A1:K1">
+    <sortState ref="A2:J61">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
